--- a/書籍.xlsx
+++ b/書籍.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axiz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axiz\Documents\dbexercise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31C5EF6D-62CC-4D15-A74C-2953941CD6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D930969A-F040-4497-AEBF-16787D9F103C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4032" yWindow="5040" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{E1950108-ECCA-41AB-9104-EF8BE6F05062}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E1950108-ECCA-41AB-9104-EF8BE6F05062}"/>
   </bookViews>
   <sheets>
     <sheet name="第一正規化" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="第三正規化" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
   <si>
     <t>書籍ID</t>
     <rPh sb="0" eb="2">
@@ -268,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -304,13 +305,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +349,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,7 +680,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G10"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -900,10 +937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401C07E0-85AD-49FA-8A3E-2DFEA688CEBE}">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K10"/>
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -916,7 +953,7 @@
     <col min="11" max="11" width="9.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -929,20 +966,23 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="3">
         <v>1001</v>
       </c>
@@ -955,20 +995,23 @@
       <c r="E3" s="4">
         <v>43101</v>
       </c>
-      <c r="G3" s="3">
-        <v>101</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="3">
+        <v>101</v>
+      </c>
+      <c r="H3" s="3">
+        <v>101</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3">
-        <v>101</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="3">
+        <v>101</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="3">
         <v>1002</v>
       </c>
@@ -981,20 +1024,23 @@
       <c r="E4" s="4">
         <v>43922</v>
       </c>
-      <c r="G4" s="3">
+      <c r="F4" s="3">
+        <v>101</v>
+      </c>
+      <c r="H4" s="3">
         <v>102</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>102</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>1003</v>
       </c>
@@ -1007,14 +1053,17 @@
       <c r="E5" s="4">
         <v>42126</v>
       </c>
-      <c r="J5" s="3">
+      <c r="F5" s="3">
+        <v>102</v>
+      </c>
+      <c r="K5" s="3">
         <v>103</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>1004</v>
       </c>
@@ -1027,16 +1076,19 @@
       <c r="E6" s="4">
         <v>40972</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="F6" s="3">
+        <v>103</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="J6" s="3">
+      <c r="I6" s="1"/>
+      <c r="K6" s="3">
         <v>104</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <v>1005</v>
       </c>
@@ -1049,16 +1101,19 @@
       <c r="E7" s="4">
         <v>43514</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="F7" s="3">
+        <v>104</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="J7" s="3">
+      <c r="I7" s="1"/>
+      <c r="K7" s="3">
         <v>105</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <v>1006</v>
       </c>
@@ -1071,12 +1126,15 @@
       <c r="E8" s="4">
         <v>38698</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="F8" s="3">
+        <v>104</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <v>1007</v>
       </c>
@@ -1089,12 +1147,15 @@
       <c r="E9" s="4">
         <v>33792</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="F9" s="3">
+        <v>105</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>1008</v>
       </c>
@@ -1106,6 +1167,9 @@
       </c>
       <c r="E10" s="4">
         <v>37138</v>
+      </c>
+      <c r="F10" s="3">
+        <v>105</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1120,217 +1184,335 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DAA1E6-FE4E-4571-BF88-C06D89CF6256}">
-  <dimension ref="B2:L10"/>
+  <dimension ref="B2:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.59765625" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" customWidth="1"/>
-    <col min="9" max="9" width="10.296875" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="7.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="10.296875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B3" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>101</v>
+      </c>
+      <c r="D3" s="3">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="F3" s="3">
         <v>600</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="5">
+        <v>43101</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="6">
         <v>1001</v>
       </c>
-      <c r="F3" s="4">
+      <c r="J3" s="4">
         <v>43101</v>
       </c>
-      <c r="H3" s="3">
-        <v>101</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="3">
+        <v>101</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3">
-        <v>101</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="O3" s="3">
+        <v>101</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
+      <c r="F4" s="3">
         <v>600</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="5">
+        <v>43922</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="6">
         <v>1002</v>
       </c>
-      <c r="F4" s="4">
+      <c r="J4" s="4">
         <v>43922</v>
       </c>
-      <c r="H4" s="3">
+      <c r="L4" s="3">
         <v>102</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="3">
+      <c r="O4" s="3">
         <v>102</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B5" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C5" s="3">
+        <v>102</v>
+      </c>
+      <c r="D5" s="3">
+        <v>102</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="F5" s="3">
         <v>1100</v>
       </c>
-      <c r="E5" s="3">
+      <c r="G5" s="5">
+        <v>42126</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="6">
         <v>1003</v>
       </c>
-      <c r="F5" s="4">
+      <c r="J5" s="4">
         <v>42126</v>
       </c>
-      <c r="K5" s="3">
+      <c r="O5" s="3">
         <v>103</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C6" s="3">
+        <v>103</v>
+      </c>
+      <c r="D6" s="3">
+        <v>102</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3">
+      <c r="F6" s="3">
         <v>750</v>
       </c>
-      <c r="E6" s="3">
+      <c r="G6" s="5">
+        <v>40972</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="6">
         <v>1004</v>
       </c>
-      <c r="F6" s="4">
+      <c r="J6" s="4">
         <v>40972</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="3">
+      <c r="L6" s="1"/>
+      <c r="O6" s="3">
         <v>104</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C7" s="3">
+        <v>104</v>
+      </c>
+      <c r="D7" s="3">
+        <v>102</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3">
+      <c r="F7" s="3">
         <v>3850</v>
       </c>
-      <c r="E7" s="3">
+      <c r="G7" s="5">
+        <v>43514</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6">
         <v>1005</v>
       </c>
-      <c r="F7" s="4">
+      <c r="J7" s="4">
         <v>43514</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="K7" s="3">
+      <c r="L7" s="1"/>
+      <c r="O7" s="3">
         <v>105</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C8" s="3">
+        <v>104</v>
+      </c>
+      <c r="D8" s="3">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="5">
+        <v>38698</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="6">
         <v>1006</v>
       </c>
-      <c r="F8" s="4">
+      <c r="J8" s="4">
         <v>38698</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B9" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C9" s="3">
+        <v>105</v>
+      </c>
+      <c r="D9" s="3">
+        <v>101</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3">
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="5">
+        <v>33792</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="6">
         <v>1007</v>
       </c>
-      <c r="F9" s="4">
+      <c r="J9" s="4">
         <v>33792</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C10" s="3">
+        <v>105</v>
+      </c>
+      <c r="D10" s="3">
+        <v>102</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3">
+      <c r="F10" s="3">
         <v>2530</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="5">
+        <v>37138</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6">
         <v>1008</v>
       </c>
-      <c r="F10" s="4">
+      <c r="J10" s="4">
         <v>37138</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
